--- a/my-app/regionseng/11/construction/mshenebloba_nebartvebi.xlsx
+++ b/my-app/regionseng/11/construction/mshenebloba_nebartvebi.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13170" windowHeight="10515"/>
   </bookViews>
   <sheets>
-    <sheet name="Mtskheta-Mtianeti" sheetId="1" r:id="rId1"/>
+    <sheet name="C. Tbilisi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +46,7 @@
     </r>
   </si>
   <si>
-    <t>Permission granted for construction in Mtskheta-Mtianeti</t>
+    <t>Permission granted for construction in C. Tbilisi</t>
   </si>
 </sst>
 </file>
@@ -200,7 +200,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,7 +491,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="7" customWidth="1"/>
-    <col min="2" max="14" width="9.7109375" style="1" customWidth="1"/>
+    <col min="2" max="14" width="10.7109375" style="1" customWidth="1"/>
     <col min="15" max="256" width="9.140625" style="1"/>
     <col min="257" max="257" width="30.85546875" style="1" customWidth="1"/>
     <col min="258" max="270" width="14.5703125" style="1" customWidth="1"/>
@@ -784,43 +784,43 @@
         <v>1</v>
       </c>
       <c r="B4" s="15">
-        <v>220</v>
+        <v>3859</v>
       </c>
       <c r="C4" s="15">
-        <v>303</v>
+        <v>6093</v>
       </c>
       <c r="D4" s="15">
-        <v>343</v>
+        <v>4151</v>
       </c>
       <c r="E4" s="15">
-        <v>336</v>
+        <v>4715</v>
       </c>
       <c r="F4" s="15">
-        <v>347</v>
+        <v>4578</v>
       </c>
       <c r="G4" s="15">
-        <v>385</v>
+        <v>4857</v>
       </c>
       <c r="H4" s="15">
-        <v>435</v>
+        <v>5245</v>
       </c>
       <c r="I4" s="15">
-        <v>398</v>
+        <v>5032</v>
       </c>
       <c r="J4" s="15">
-        <v>442</v>
+        <v>4918</v>
       </c>
       <c r="K4" s="15">
-        <v>661</v>
+        <v>5248</v>
       </c>
       <c r="L4" s="15">
-        <v>674</v>
+        <v>5114</v>
       </c>
       <c r="M4" s="15">
-        <v>926</v>
+        <v>4923</v>
       </c>
       <c r="N4" s="15">
-        <v>1136</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="21" customHeight="1">
@@ -828,43 +828,43 @@
         <v>2</v>
       </c>
       <c r="B5" s="17">
-        <v>97234</v>
+        <v>1010785</v>
       </c>
       <c r="C5" s="17">
-        <v>89878</v>
+        <v>3933260</v>
       </c>
       <c r="D5" s="17">
-        <v>153130</v>
+        <v>4494893</v>
       </c>
       <c r="E5" s="17">
-        <v>96231</v>
+        <v>5957076</v>
       </c>
       <c r="F5" s="17">
-        <v>130127</v>
+        <v>4626021</v>
       </c>
       <c r="G5" s="17">
-        <v>123922</v>
+        <v>4842318</v>
       </c>
       <c r="H5" s="17">
-        <v>177716</v>
+        <v>2911124</v>
       </c>
       <c r="I5" s="17">
-        <v>111030</v>
+        <v>3301705</v>
       </c>
       <c r="J5" s="17">
-        <v>167486</v>
+        <v>2518302</v>
       </c>
       <c r="K5" s="17">
-        <v>239416</v>
+        <v>2779877</v>
       </c>
       <c r="L5" s="17">
-        <v>208887</v>
+        <v>2307402</v>
       </c>
       <c r="M5" s="17">
-        <v>293987</v>
+        <v>5041555</v>
       </c>
       <c r="N5" s="17">
-        <v>360839</v>
+        <v>4862823</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="24" customHeight="1">
@@ -890,6 +890,9 @@
       <c r="E15" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
